--- a/data/trans_orig/P1426-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1426-Clase-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6300</v>
+        <v>5890</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002410194297423759</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01440920140043746</v>
+        <v>0.01347215858591578</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -764,19 +764,19 @@
         <v>4076</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1091</v>
+        <v>1064</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9415</v>
+        <v>10113</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01296193451637387</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003470361185974958</v>
+        <v>0.003382662365076472</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02994092844072335</v>
+        <v>0.03215931516905635</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -785,19 +785,19 @@
         <v>5130</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1953</v>
+        <v>1915</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10802</v>
+        <v>11175</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006824447259578229</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002598129966168993</v>
+        <v>0.002547185655844832</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01437071819799676</v>
+        <v>0.014866371047816</v>
       </c>
     </row>
     <row r="5">
@@ -814,7 +814,7 @@
         <v>436157</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>430911</v>
+        <v>431321</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>437211</v>
@@ -823,7 +823,7 @@
         <v>0.9975898057025763</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9855907985995626</v>
+        <v>0.986527841414085</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -835,19 +835,19 @@
         <v>310378</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>305039</v>
+        <v>304341</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>313363</v>
+        <v>313390</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9870380654836262</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.970059071559277</v>
+        <v>0.9678406848309437</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.996529638814025</v>
+        <v>0.9966173376349236</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>682</v>
@@ -856,19 +856,19 @@
         <v>746535</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>740863</v>
+        <v>740490</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>749712</v>
+        <v>749750</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9931755527404218</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9856292818020052</v>
+        <v>0.985133628952185</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.997401870033831</v>
+        <v>0.9974528143441551</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>5005</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12049</v>
+        <v>13184</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0119507819990857</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00248713181594851</v>
+        <v>0.002459314898187672</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02877101817757778</v>
+        <v>0.03148083431110765</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -981,19 +981,19 @@
         <v>5705</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1736</v>
+        <v>1986</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12448</v>
+        <v>13319</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01687723038175973</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00513715623823642</v>
+        <v>0.005876472589090133</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03682746880797925</v>
+        <v>0.03940505759290013</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -1002,19 +1002,19 @@
         <v>10710</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4970</v>
+        <v>4953</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20557</v>
+        <v>20486</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01415106807672572</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006566729369930751</v>
+        <v>0.006544531017215152</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02716293232080248</v>
+        <v>0.02706915299194891</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>413792</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>406748</v>
+        <v>405613</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>417755</v>
+        <v>417767</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9880492180009143</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9712289818224222</v>
+        <v>0.9685191656888927</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9975128681840515</v>
+        <v>0.9975406851018124</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>300</v>
@@ -1052,19 +1052,19 @@
         <v>332306</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>325563</v>
+        <v>324692</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>336275</v>
+        <v>336025</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9831227696182403</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9631725311920207</v>
+        <v>0.9605949424071</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9948628437617636</v>
+        <v>0.9941235274109099</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>671</v>
@@ -1073,19 +1073,19 @@
         <v>746098</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>736251</v>
+        <v>736322</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>751838</v>
+        <v>751855</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9858489319232743</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9728370676791975</v>
+        <v>0.972930847008051</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9934332706300691</v>
+        <v>0.9934554689827849</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>12893</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6788</v>
+        <v>6868</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23125</v>
+        <v>23157</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02048357590468615</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0107840258652321</v>
+        <v>0.01091203790552977</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03674009369316567</v>
+        <v>0.03679123989216698</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1198,19 +1198,19 @@
         <v>4250</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1101</v>
+        <v>1056</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11523</v>
+        <v>10859</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01633886641332951</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004231773500382795</v>
+        <v>0.004059624088265336</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04429913828350861</v>
+        <v>0.04174379835770758</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -1219,19 +1219,19 @@
         <v>17143</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8822</v>
+        <v>10159</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27868</v>
+        <v>28518</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0192715384845871</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009917588374829108</v>
+        <v>0.01142092091790465</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03132815733541849</v>
+        <v>0.03205908699042444</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>616522</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>606290</v>
+        <v>606258</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>622627</v>
+        <v>622547</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9795164240953138</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9632599063068346</v>
+        <v>0.9632087601078331</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.989215974134768</v>
+        <v>0.9890879620944703</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>240</v>
@@ -1269,19 +1269,19 @@
         <v>255879</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>248606</v>
+        <v>249270</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>259028</v>
+        <v>259073</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9836611335866705</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9557008617164916</v>
+        <v>0.9582562016422927</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9957682264996173</v>
+        <v>0.9959403759117347</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>820</v>
@@ -1290,19 +1290,19 @@
         <v>872401</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>861676</v>
+        <v>861026</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>880722</v>
+        <v>879385</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9807284615154129</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9686718426645815</v>
+        <v>0.9679409130095754</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9900824116251709</v>
+        <v>0.9885790790820953</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>19427</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12119</v>
+        <v>11992</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29842</v>
+        <v>30597</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01676191475757725</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01045646104141097</v>
+        <v>0.01034701604813648</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02574809286158345</v>
+        <v>0.02639923741141116</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1415,19 +1415,19 @@
         <v>7835</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3056</v>
+        <v>3772</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16139</v>
+        <v>16072</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01024569391473461</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003996259099997674</v>
+        <v>0.004932870386840303</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02110467781657624</v>
+        <v>0.02101730640568359</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -1436,19 +1436,19 @@
         <v>27262</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18595</v>
+        <v>18801</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40969</v>
+        <v>39946</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01417158505530719</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009666114336475557</v>
+        <v>0.00977296963073393</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0212965200439624</v>
+        <v>0.02076484247730067</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>1139582</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1129167</v>
+        <v>1128412</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1146890</v>
+        <v>1147017</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9832380852424227</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9742519071384169</v>
+        <v>0.973600762588589</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.989543538958589</v>
+        <v>0.9896529839518637</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>703</v>
@@ -1486,19 +1486,19 @@
         <v>756887</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>748583</v>
+        <v>748650</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>761666</v>
+        <v>760950</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9897543060852654</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9788953221834238</v>
+        <v>0.9789826935943172</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9960037409000024</v>
+        <v>0.9950671296131598</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1768</v>
@@ -1507,19 +1507,19 @@
         <v>1896469</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1882762</v>
+        <v>1883785</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1905136</v>
+        <v>1904930</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9858284149446929</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9787034799560375</v>
+        <v>0.979235157522699</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9903338856635244</v>
+        <v>0.990227030369266</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>12453</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7156</v>
+        <v>7132</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21400</v>
+        <v>21920</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02438895139236013</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01401571380274407</v>
+        <v>0.0139675952464122</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04191098083094102</v>
+        <v>0.04292947762475482</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1632,19 +1632,19 @@
         <v>11334</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5679</v>
+        <v>5718</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19991</v>
+        <v>19950</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01490782130765468</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007470169616419405</v>
+        <v>0.007521666424846186</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02629531298710534</v>
+        <v>0.02624215581982117</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -1653,19 +1653,19 @@
         <v>23787</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>15319</v>
+        <v>14924</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34976</v>
+        <v>34912</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01871712847429216</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01205425142821449</v>
+        <v>0.01174362346709435</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02752186815811636</v>
+        <v>0.02747127053532135</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>498143</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>489196</v>
+        <v>488676</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>503440</v>
+        <v>503464</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9756110486076399</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.958089019169059</v>
+        <v>0.9570705223752456</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9859842861972561</v>
+        <v>0.9860324047535879</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>692</v>
@@ -1703,19 +1703,19 @@
         <v>748912</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>740255</v>
+        <v>740296</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>754567</v>
+        <v>754528</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9850921786923453</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9737046870128947</v>
+        <v>0.9737578441801791</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9925298303835806</v>
+        <v>0.9924783335751538</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1167</v>
@@ -1724,19 +1724,19 @@
         <v>1247056</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1235867</v>
+        <v>1235931</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1255524</v>
+        <v>1255919</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9812828715257078</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9724781318418837</v>
+        <v>0.9725287294646779</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9879457485717855</v>
+        <v>0.9882563765329057</v>
       </c>
     </row>
     <row r="18">
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9646</v>
+        <v>8212</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007287965146910585</v>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03614167242765751</v>
+        <v>0.03077130659907714</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>30</v>
@@ -1849,19 +1849,19 @@
         <v>32665</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21834</v>
+        <v>22133</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>45392</v>
+        <v>46589</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02944551342597468</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01968187201099747</v>
+        <v>0.01995131527734207</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04091777174504237</v>
+        <v>0.04199686203722169</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>31</v>
@@ -1870,19 +1870,19 @@
         <v>34610</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>23139</v>
+        <v>23502</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>49361</v>
+        <v>49507</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02514867678346781</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01681323838149116</v>
+        <v>0.01707729392571974</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03586651777125334</v>
+        <v>0.03597312111093574</v>
       </c>
     </row>
     <row r="20">
@@ -1899,7 +1899,7 @@
         <v>264937</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>257236</v>
+        <v>258670</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>266882</v>
@@ -1908,7 +1908,7 @@
         <v>0.9927120348530895</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9638583275723425</v>
+        <v>0.9692286934009219</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1920,19 +1920,19 @@
         <v>1076686</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1063959</v>
+        <v>1062762</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1087517</v>
+        <v>1087218</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9705544865740253</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9590822282549576</v>
+        <v>0.9580031379627783</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9803181279890026</v>
+        <v>0.9800486847226578</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1278</v>
@@ -1941,19 +1941,19 @@
         <v>1341623</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1326872</v>
+        <v>1326726</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1353094</v>
+        <v>1352731</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9748513232165322</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9641334822287466</v>
+        <v>0.9640268788890642</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9831867616185088</v>
+        <v>0.9829227060742802</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>52777</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>38319</v>
+        <v>39443</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>69404</v>
+        <v>70483</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0154231204719632</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01119818314590972</v>
+        <v>0.0115265631742843</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0202822805294137</v>
+        <v>0.02059768494004494</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>60</v>
@@ -2066,19 +2066,19 @@
         <v>65865</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>50596</v>
+        <v>50061</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>85377</v>
+        <v>83574</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0185696585866161</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01426477164004366</v>
+        <v>0.0141138195683752</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02407073006778306</v>
+        <v>0.02356248761092269</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>107</v>
@@ -2087,19 +2087,19 @@
         <v>118642</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>98284</v>
+        <v>97477</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>144435</v>
+        <v>144838</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01702461035088123</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01410331631587423</v>
+        <v>0.01398757295623503</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02072583832535864</v>
+        <v>0.02078366513867968</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>3369133</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3352506</v>
+        <v>3351427</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3383591</v>
+        <v>3382467</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9845768795280369</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9797177194705867</v>
+        <v>0.9794023150599551</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9888018168540906</v>
+        <v>0.9884734368257158</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3228</v>
@@ -2137,19 +2137,19 @@
         <v>3481050</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3461538</v>
+        <v>3463341</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3496319</v>
+        <v>3496854</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9814303414133839</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.975929269932217</v>
+        <v>0.9764375123890774</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9857352283599564</v>
+        <v>0.9858861804316248</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6386</v>
@@ -2158,19 +2158,19 @@
         <v>6850183</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6824390</v>
+        <v>6823987</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6870541</v>
+        <v>6871348</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9829753896491188</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9792741616746414</v>
+        <v>0.9792163348613205</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.985896683684126</v>
+        <v>0.9860124270437656</v>
       </c>
     </row>
     <row r="24">
@@ -2504,19 +2504,19 @@
         <v>5703</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2111</v>
+        <v>1898</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14054</v>
+        <v>13403</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01328986205442052</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004918623456941617</v>
+        <v>0.004423193819602452</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0327539022882655</v>
+        <v>0.03123636189616031</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -2525,19 +2525,19 @@
         <v>5652</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2045</v>
+        <v>2136</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13041</v>
+        <v>12694</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01628675093185456</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005892237965752433</v>
+        <v>0.006155741371870115</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0375748122420641</v>
+        <v>0.03657760357614551</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -2546,19 +2546,19 @@
         <v>11355</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5850</v>
+        <v>5727</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21105</v>
+        <v>21292</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01462992405363693</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007537326898523536</v>
+        <v>0.007378958667841883</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02719245014621697</v>
+        <v>0.02743273640106331</v>
       </c>
     </row>
     <row r="5">
@@ -2575,19 +2575,19 @@
         <v>423389</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>415038</v>
+        <v>415689</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>426981</v>
+        <v>427194</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9867101379455795</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9672460977117345</v>
+        <v>0.9687636381038398</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9950813765430584</v>
+        <v>0.9955768061803976</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>327</v>
@@ -2596,19 +2596,19 @@
         <v>341403</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>334014</v>
+        <v>334361</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>345010</v>
+        <v>344919</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9837132490681454</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9624251877579373</v>
+        <v>0.9634223964238547</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9941077620342477</v>
+        <v>0.99384425862813</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>718</v>
@@ -2617,19 +2617,19 @@
         <v>764792</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>755042</v>
+        <v>754855</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>770297</v>
+        <v>770420</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9853700759463631</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.972807549853783</v>
+        <v>0.9725672635989366</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9924626731014764</v>
+        <v>0.9926210413321581</v>
       </c>
     </row>
     <row r="6">
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7478</v>
+        <v>6499</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005590069232789905</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01982354706154111</v>
+        <v>0.01722938539422863</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -2742,19 +2742,19 @@
         <v>4121</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12718</v>
+        <v>12479</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01107092193291009</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002507668960857374</v>
+        <v>0.002486408128110787</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03416206144168704</v>
+        <v>0.03352146298550536</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -2763,19 +2763,19 @@
         <v>6230</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2093</v>
+        <v>2102</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14705</v>
+        <v>14838</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008312383083819064</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002793179987092086</v>
+        <v>0.002804307932416795</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01962038603245235</v>
+        <v>0.01979689042131528</v>
       </c>
     </row>
     <row r="8">
@@ -2792,7 +2792,7 @@
         <v>375118</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>369749</v>
+        <v>370728</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>377227</v>
@@ -2801,7 +2801,7 @@
         <v>0.9944099307672101</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9801764529384589</v>
+        <v>0.9827706146057714</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2813,19 +2813,19 @@
         <v>368152</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>359555</v>
+        <v>359794</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>371339</v>
+        <v>371347</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.98892907806709</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9658379385583152</v>
+        <v>0.9664785370144946</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9974923310391426</v>
+        <v>0.9975135918718893</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>701</v>
@@ -2834,19 +2834,19 @@
         <v>743270</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>734795</v>
+        <v>734662</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>747407</v>
+        <v>747398</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9916876169161809</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9803796139675477</v>
+        <v>0.9802031095786852</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9972068200129078</v>
+        <v>0.9971956920675832</v>
       </c>
     </row>
     <row r="9">
@@ -2938,19 +2938,19 @@
         <v>9526</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4822</v>
+        <v>4612</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16820</v>
+        <v>16575</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01825295235375646</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009239107687395118</v>
+        <v>0.00883725845212582</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03222763619353516</v>
+        <v>0.03175837827668852</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -2959,19 +2959,19 @@
         <v>4464</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1135</v>
+        <v>1241</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11492</v>
+        <v>10291</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02687252404667848</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006833165422418219</v>
+        <v>0.007468749787095461</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06917657078655484</v>
+        <v>0.0619468742497016</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -2980,19 +2980,19 @@
         <v>13991</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7779</v>
+        <v>8756</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23082</v>
+        <v>22532</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02033410274436383</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01130635403901462</v>
+        <v>0.01272576989348337</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03354741107523995</v>
+        <v>0.03274833055109488</v>
       </c>
     </row>
     <row r="11">
@@ -3009,19 +3009,19 @@
         <v>512388</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>505094</v>
+        <v>505339</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>517092</v>
+        <v>517302</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9817470476462435</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.967772363806465</v>
+        <v>0.9682416217233114</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9907608923126058</v>
+        <v>0.9911627415478741</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>149</v>
@@ -3030,19 +3030,19 @@
         <v>161659</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>154631</v>
+        <v>155832</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>164988</v>
+        <v>164882</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9731274759533215</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9308234292134439</v>
+        <v>0.9380531257502984</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9931668345775817</v>
+        <v>0.9925312502129046</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>641</v>
@@ -3051,19 +3051,19 @@
         <v>674045</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>664954</v>
+        <v>665504</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>680257</v>
+        <v>679280</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9796658972556361</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9664525889247599</v>
+        <v>0.9672516694489045</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9886936459609853</v>
+        <v>0.9872742301065163</v>
       </c>
     </row>
     <row r="12">
@@ -3155,19 +3155,19 @@
         <v>19095</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12011</v>
+        <v>11924</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30094</v>
+        <v>28872</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01660955655761336</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01044791216077846</v>
+        <v>0.01037213965089343</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0261772305985015</v>
+        <v>0.02511380864861859</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -3176,19 +3176,19 @@
         <v>11289</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5698</v>
+        <v>6173</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19918</v>
+        <v>20682</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01366900844448829</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006898964910341405</v>
+        <v>0.007474766020973828</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02411693530655258</v>
+        <v>0.025042344129195</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>30</v>
@@ -3197,19 +3197,19 @@
         <v>30384</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20856</v>
+        <v>20678</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>43236</v>
+        <v>42137</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01538024235624496</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01055707939873659</v>
+        <v>0.01046716364487881</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02188583520109891</v>
+        <v>0.0213294915581839</v>
       </c>
     </row>
     <row r="14">
@@ -3226,19 +3226,19 @@
         <v>1130543</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1119544</v>
+        <v>1120766</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1137627</v>
+        <v>1137714</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9833904434423867</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9738227694014984</v>
+        <v>0.9748861913513812</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9895520878392214</v>
+        <v>0.9896278603491065</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>787</v>
@@ -3247,19 +3247,19 @@
         <v>814587</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>805958</v>
+        <v>805194</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>820178</v>
+        <v>819703</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9863309915555117</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9758830646934471</v>
+        <v>0.9749576558708051</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9931010350896577</v>
+        <v>0.9925252339790263</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1871</v>
@@ -3268,19 +3268,19 @@
         <v>1945130</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1932278</v>
+        <v>1933377</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1954658</v>
+        <v>1954836</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9846197576437551</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9781141647989008</v>
+        <v>0.9786705084418159</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.989442920601263</v>
+        <v>0.9895328363551209</v>
       </c>
     </row>
     <row r="15">
@@ -3372,19 +3372,19 @@
         <v>12604</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7224</v>
+        <v>7145</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20371</v>
+        <v>19561</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02030657843191584</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01163850128604448</v>
+        <v>0.0115115089388421</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03281859181229638</v>
+        <v>0.03151398868779721</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -3393,19 +3393,19 @@
         <v>13163</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7128</v>
+        <v>6769</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22155</v>
+        <v>22948</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01782993269028788</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.009655489087588476</v>
+        <v>0.009169390101631033</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03001019121779816</v>
+        <v>0.03108405597315778</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -3414,19 +3414,19 @@
         <v>25767</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17174</v>
+        <v>17409</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>37376</v>
+        <v>37288</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01896115058990431</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01263802354593225</v>
+        <v>0.01281095962889734</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02750350461449359</v>
+        <v>0.02743858409503817</v>
       </c>
     </row>
     <row r="17">
@@ -3443,19 +3443,19 @@
         <v>608102</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>600335</v>
+        <v>601145</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>613482</v>
+        <v>613561</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9796934215680841</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9671814081877037</v>
+        <v>0.9684860113122026</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9883614987139555</v>
+        <v>0.9884884910611579</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>687</v>
@@ -3464,19 +3464,19 @@
         <v>725081</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>716089</v>
+        <v>715296</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>731116</v>
+        <v>731475</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9821700673097121</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9699898087822019</v>
+        <v>0.9689159440268423</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9903445109124115</v>
+        <v>0.990830609898369</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1270</v>
@@ -3485,19 +3485,19 @@
         <v>1333183</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1321574</v>
+        <v>1321662</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1341776</v>
+        <v>1341541</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9810388494100957</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9724964953855063</v>
+        <v>0.9725614159049618</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9873619764540678</v>
+        <v>0.9871890403711027</v>
       </c>
     </row>
     <row r="18">
@@ -3602,19 +3602,19 @@
         <v>33476</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22609</v>
+        <v>23384</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>47036</v>
+        <v>46010</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03093853371573551</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02089479540355859</v>
+        <v>0.02161127238139368</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04347050179630953</v>
+        <v>0.04252213118162058</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>30</v>
@@ -3623,19 +3623,19 @@
         <v>33476</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>23638</v>
+        <v>23177</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>48291</v>
+        <v>47530</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02445004081284211</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01726435348369038</v>
+        <v>0.01692798583771419</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03527006552742633</v>
+        <v>0.03471446205296312</v>
       </c>
     </row>
     <row r="20">
@@ -3665,19 +3665,19 @@
         <v>1048549</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1034989</v>
+        <v>1036015</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1059416</v>
+        <v>1058641</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9690614662842645</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9565294982036904</v>
+        <v>0.9574778688183793</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9791052045964413</v>
+        <v>0.9783887276186063</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1234</v>
@@ -3686,19 +3686,19 @@
         <v>1335694</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1320879</v>
+        <v>1321640</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1345532</v>
+        <v>1345993</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9755499591871579</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9647299344725736</v>
+        <v>0.9652855379470371</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9827356465163096</v>
+        <v>0.983072014162286</v>
       </c>
     </row>
     <row r="21">
@@ -3790,19 +3790,19 @@
         <v>49037</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>37200</v>
+        <v>37619</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>65631</v>
+        <v>64623</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01448351602789384</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01098731729328349</v>
+        <v>0.01111110555444208</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01938476117103113</v>
+        <v>0.01908679156584291</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>65</v>
@@ -3811,19 +3811,19 @@
         <v>72166</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>55773</v>
+        <v>55423</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>92589</v>
+        <v>91194</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02043437457895114</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01579251340233769</v>
+        <v>0.01569339954090386</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02621735209952379</v>
+        <v>0.02582234211326185</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>115</v>
@@ -3832,19 +3832,19 @@
         <v>121203</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>100759</v>
+        <v>97443</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>144497</v>
+        <v>142598</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01752169171348438</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01456625344561379</v>
+        <v>0.0140868188468046</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02088912619766367</v>
+        <v>0.020614645211139</v>
       </c>
     </row>
     <row r="23">
@@ -3861,19 +3861,19 @@
         <v>3336685</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3320091</v>
+        <v>3321099</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3348522</v>
+        <v>3348103</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9855164839721061</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9806152388289689</v>
+        <v>0.9809132084341571</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9890126827067171</v>
+        <v>0.9888888944455579</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3261</v>
@@ -3882,19 +3882,19 @@
         <v>3459430</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3439007</v>
+        <v>3440402</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3475823</v>
+        <v>3476173</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9795656254210489</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9737826479004763</v>
+        <v>0.9741776578867384</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9842074865976624</v>
+        <v>0.9843066004590962</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6435</v>
@@ -3903,19 +3903,19 @@
         <v>6796115</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6772821</v>
+        <v>6774720</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6816559</v>
+        <v>6819875</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9824783082865156</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9791108738023361</v>
+        <v>0.9793853547888612</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9854337465543861</v>
+        <v>0.9859131811531957</v>
       </c>
     </row>
     <row r="24">
@@ -4249,19 +4249,19 @@
         <v>22937</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15657</v>
+        <v>14810</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32259</v>
+        <v>32050</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04165758464991976</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02843532775818548</v>
+        <v>0.02689783054192537</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05858730091765224</v>
+        <v>0.05820744365656649</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -4270,19 +4270,19 @@
         <v>16375</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10177</v>
+        <v>10721</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25535</v>
+        <v>24875</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03352744819633451</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02083741827368097</v>
+        <v>0.02195035021586551</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05228179727327879</v>
+        <v>0.05092971545258704</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>54</v>
@@ -4291,19 +4291,19 @@
         <v>39313</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29015</v>
+        <v>29859</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51229</v>
+        <v>52587</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.03783589481628485</v>
+        <v>0.03783589481628484</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02792543093669856</v>
+        <v>0.02873783915058329</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04930431483445988</v>
+        <v>0.05061146352822975</v>
       </c>
     </row>
     <row r="5">
@@ -4320,19 +4320,19 @@
         <v>527681</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>518359</v>
+        <v>518568</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>534961</v>
+        <v>535808</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9583424153500804</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9414126990823477</v>
+        <v>0.9417925563434336</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9715646722418144</v>
+        <v>0.9731021694580748</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>662</v>
@@ -4341,19 +4341,19 @@
         <v>472036</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>462876</v>
+        <v>463536</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>478234</v>
+        <v>477690</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9664725518036656</v>
+        <v>0.9664725518036655</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9477182027267201</v>
+        <v>0.9490702845474129</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.979162581726319</v>
+        <v>0.9780496497841343</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1186</v>
@@ -4362,19 +4362,19 @@
         <v>999716</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>987800</v>
+        <v>986442</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1010014</v>
+        <v>1009170</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9621641051837151</v>
+        <v>0.9621641051837153</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9506956851655401</v>
+        <v>0.9493885364717701</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9720745690633016</v>
+        <v>0.9712621608494167</v>
       </c>
     </row>
     <row r="6">
@@ -4466,19 +4466,19 @@
         <v>22710</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15361</v>
+        <v>15050</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32660</v>
+        <v>32097</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.04699871062684938</v>
+        <v>0.04699871062684939</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03178868022882137</v>
+        <v>0.03114510568838232</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06758931341359337</v>
+        <v>0.06642365720100961</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -4487,19 +4487,19 @@
         <v>9345</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5183</v>
+        <v>5355</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14766</v>
+        <v>15278</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02215435032278668</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01228844744890075</v>
+        <v>0.01269552033350719</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03500526273299075</v>
+        <v>0.0362204546972378</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>47</v>
@@ -4508,19 +4508,19 @@
         <v>32055</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23674</v>
+        <v>22916</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>43491</v>
+        <v>43434</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03541925859192439</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02615837557521002</v>
+        <v>0.02532106603737664</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04805486457701439</v>
+        <v>0.04799165343146663</v>
       </c>
     </row>
     <row r="8">
@@ -4537,19 +4537,19 @@
         <v>460502</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>450552</v>
+        <v>451115</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>467851</v>
+        <v>468162</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9530012893731507</v>
+        <v>0.9530012893731505</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9324106865864067</v>
+        <v>0.9335763427989904</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9682113197711787</v>
+        <v>0.9688548943116179</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>572</v>
@@ -4558,19 +4558,19 @@
         <v>412469</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>407048</v>
+        <v>406536</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>416631</v>
+        <v>416459</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9778456496772132</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9649947372670094</v>
+        <v>0.963779545302762</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9877115525510993</v>
+        <v>0.9873044796664927</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1022</v>
@@ -4579,19 +4579,19 @@
         <v>872971</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>861535</v>
+        <v>861592</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>881352</v>
+        <v>882110</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9645807414080757</v>
+        <v>0.9645807414080754</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9519451354229855</v>
+        <v>0.9520083465685335</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9738416244247901</v>
+        <v>0.9746789339626234</v>
       </c>
     </row>
     <row r="9">
@@ -4683,19 +4683,19 @@
         <v>22490</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15063</v>
+        <v>15599</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31385</v>
+        <v>32864</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04777542704624149</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03199776662529658</v>
+        <v>0.03313667897232515</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06667179214777789</v>
+        <v>0.06981218675518951</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -4704,19 +4704,19 @@
         <v>7499</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4089</v>
+        <v>4267</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12791</v>
+        <v>12320</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.0399961006505274</v>
+        <v>0.03999610065052739</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02180759498238741</v>
+        <v>0.022758909303478</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06821952002609073</v>
+        <v>0.0657086319631343</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>46</v>
@@ -4725,19 +4725,19 @@
         <v>29989</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21482</v>
+        <v>21143</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39372</v>
+        <v>39631</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04555951646019114</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03263610115586402</v>
+        <v>0.03212069925176747</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05981393902090976</v>
+        <v>0.0602072435650161</v>
       </c>
     </row>
     <row r="11">
@@ -4754,19 +4754,19 @@
         <v>448253</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>439358</v>
+        <v>437879</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>455680</v>
+        <v>455144</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9522245729537585</v>
+        <v>0.9522245729537584</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9333282078522221</v>
+        <v>0.9301878132448106</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9680022333747036</v>
+        <v>0.9668633210276749</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>275</v>
@@ -4775,19 +4775,19 @@
         <v>179998</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>174706</v>
+        <v>175177</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>183408</v>
+        <v>183230</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9600038993494726</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.931780479973909</v>
+        <v>0.9342913680368653</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9781924050176123</v>
+        <v>0.977241090696522</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>730</v>
@@ -4796,19 +4796,19 @@
         <v>628252</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>618869</v>
+        <v>618610</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>636759</v>
+        <v>637098</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9544404835398088</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9401860609790902</v>
+        <v>0.9397927564349836</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9673638988441354</v>
+        <v>0.9678793007482325</v>
       </c>
     </row>
     <row r="12">
@@ -4900,19 +4900,19 @@
         <v>66897</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53012</v>
+        <v>53765</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>82123</v>
+        <v>81145</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0591653239528017</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04688548200593172</v>
+        <v>0.04755117101537069</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07263172486254479</v>
+        <v>0.07176667606763358</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -4921,19 +4921,19 @@
         <v>27624</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20666</v>
+        <v>21127</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37006</v>
+        <v>36231</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03213046304472769</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02403755150757969</v>
+        <v>0.02457273037758746</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04304218328015507</v>
+        <v>0.04214114301609092</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>147</v>
@@ -4942,19 +4942,19 @@
         <v>94521</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>80359</v>
+        <v>78459</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>112517</v>
+        <v>110188</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04748774779710386</v>
+        <v>0.04748774779710385</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04037261405243537</v>
+        <v>0.03941816931592179</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05652888838636512</v>
+        <v>0.05535897369096705</v>
       </c>
     </row>
     <row r="14">
@@ -4971,19 +4971,19 @@
         <v>1063778</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1048552</v>
+        <v>1049530</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1077663</v>
+        <v>1076910</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9408346760471984</v>
+        <v>0.9408346760471982</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9273682751374551</v>
+        <v>0.9282333239323663</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9531145179940681</v>
+        <v>0.952448828984629</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1177</v>
@@ -4992,19 +4992,19 @@
         <v>832134</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>822752</v>
+        <v>823527</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>839092</v>
+        <v>838631</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9678695369552723</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.956957816719845</v>
+        <v>0.9578588569839093</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9759624484924203</v>
+        <v>0.975427269622413</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2197</v>
@@ -5013,19 +5013,19 @@
         <v>1895911</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1877915</v>
+        <v>1880244</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1910073</v>
+        <v>1911973</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9525122522028959</v>
+        <v>0.9525122522028963</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9434711116136348</v>
+        <v>0.9446410263090333</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9596273859475647</v>
+        <v>0.9605818306840787</v>
       </c>
     </row>
     <row r="15">
@@ -5117,19 +5117,19 @@
         <v>24887</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18167</v>
+        <v>17435</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33645</v>
+        <v>33910</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.0438947268147779</v>
+        <v>0.04389472681477789</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03204105551052863</v>
+        <v>0.03075103924592545</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05934032001852983</v>
+        <v>0.05980859820289144</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>115</v>
@@ -5138,19 +5138,19 @@
         <v>55026</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44976</v>
+        <v>45733</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>65648</v>
+        <v>65977</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.06634121346790314</v>
+        <v>0.06634121346790313</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05422466820459906</v>
+        <v>0.05513772004196048</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07914733783864904</v>
+        <v>0.07954365483600039</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>154</v>
@@ -5159,19 +5159,19 @@
         <v>79913</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>68586</v>
+        <v>66698</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>95124</v>
+        <v>93793</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.0572274248433341</v>
+        <v>0.05722742484333409</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04911558033528761</v>
+        <v>0.04776400116692898</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06812043255833589</v>
+        <v>0.06716675002189681</v>
       </c>
     </row>
     <row r="17">
@@ -5188,19 +5188,19 @@
         <v>542089</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>533331</v>
+        <v>533066</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>548809</v>
+        <v>549541</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9561052731852221</v>
+        <v>0.956105273185222</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9406596799814702</v>
+        <v>0.9401914017971091</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9679589444894714</v>
+        <v>0.9692489607540749</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1173</v>
@@ -5209,19 +5209,19 @@
         <v>774412</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>763790</v>
+        <v>763461</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>784462</v>
+        <v>783705</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9336587865320969</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.920852662161351</v>
+        <v>0.9204563451639997</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9457753317954007</v>
+        <v>0.9448622799580401</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1680</v>
@@ -5230,19 +5230,19 @@
         <v>1316501</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1301290</v>
+        <v>1302621</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1327828</v>
+        <v>1329716</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.942772575156666</v>
+        <v>0.9427725751566659</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.931879567441664</v>
+        <v>0.9328332499781032</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9508844196647125</v>
+        <v>0.952235998833071</v>
       </c>
     </row>
     <row r="18">
@@ -5334,19 +5334,19 @@
         <v>1891</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5643</v>
+        <v>5405</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007972195781574926</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002054196118102329</v>
+        <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02378816216021131</v>
+        <v>0.02278271892721612</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>97</v>
@@ -5355,19 +5355,19 @@
         <v>54167</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>44474</v>
+        <v>44044</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>68046</v>
+        <v>69159</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.06420973975231989</v>
+        <v>0.0642097397523199</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05271939071026369</v>
+        <v>0.05220936098201275</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08066131099307156</v>
+        <v>0.08198073978628551</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>100</v>
@@ -5376,19 +5376,19 @@
         <v>56058</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>45076</v>
+        <v>45084</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>70037</v>
+        <v>69193</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0518662799047739</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04170547102609733</v>
+        <v>0.04171225471860515</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0647996291652236</v>
+        <v>0.06401850503857394</v>
       </c>
     </row>
     <row r="20">
@@ -5405,19 +5405,19 @@
         <v>235337</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>231585</v>
+        <v>231823</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>236741</v>
+        <v>237228</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9920278042184252</v>
+        <v>0.9920278042184251</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9762118378397887</v>
+        <v>0.9772172810727838</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9979458038818977</v>
+        <v>1</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1061</v>
@@ -5426,19 +5426,19 @@
         <v>789429</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>775550</v>
+        <v>774437</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>799122</v>
+        <v>799552</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.93579026024768</v>
+        <v>0.9357902602476801</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9193386890069286</v>
+        <v>0.9180192602137143</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9472806092897369</v>
+        <v>0.9477906390179872</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1170</v>
@@ -5447,19 +5447,19 @@
         <v>1024766</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1010787</v>
+        <v>1011631</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1035748</v>
+        <v>1035740</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.948133720095226</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.935200370834776</v>
+        <v>0.9359814949614262</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9582945289739023</v>
+        <v>0.9582877452813947</v>
       </c>
     </row>
     <row r="21">
@@ -5551,19 +5551,19 @@
         <v>161813</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>141301</v>
+        <v>141804</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>185717</v>
+        <v>184129</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04704614290252117</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04108240009515089</v>
+        <v>0.04122863746999892</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05399598075446166</v>
+        <v>0.05353446707185205</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>316</v>
@@ -5572,19 +5572,19 @@
         <v>170037</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>149472</v>
+        <v>150710</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>191445</v>
+        <v>190329</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.04683545024439652</v>
+        <v>0.04683545024439651</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0411709859139814</v>
+        <v>0.0415119160209078</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05273233981092006</v>
+        <v>0.05242492919663502</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>548</v>
@@ -5593,19 +5593,19 @@
         <v>331850</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>301710</v>
+        <v>302820</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>360449</v>
+        <v>361374</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04693794964976209</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04267483495263861</v>
+        <v>0.0428318951469038</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05098309759360688</v>
+        <v>0.05111402469871772</v>
       </c>
     </row>
     <row r="23">
@@ -5622,19 +5622,19 @@
         <v>3277639</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3253735</v>
+        <v>3255323</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3298151</v>
+        <v>3297648</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9529538570974788</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9460040192455385</v>
+        <v>0.9464655329281478</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9589175999048483</v>
+        <v>0.9587713625300011</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4920</v>
@@ -5643,19 +5643,19 @@
         <v>3460477</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3439069</v>
+        <v>3440185</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3481042</v>
+        <v>3479804</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9531645497556036</v>
+        <v>0.9531645497556035</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9472676601890798</v>
+        <v>0.947575070803365</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9588290140860186</v>
+        <v>0.9584880839790921</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7985</v>
@@ -5664,19 +5664,19 @@
         <v>6738116</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6709517</v>
+        <v>6708592</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6768256</v>
+        <v>6767146</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9530620503502379</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9490169024063935</v>
+        <v>0.9488859753012823</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9573251650473614</v>
+        <v>0.957168104853096</v>
       </c>
     </row>
     <row r="24">
